--- a/downloaded_files/CMPS405_Tutorial-35570.xlsx
+++ b/downloaded_files/CMPS405_Tutorial-35570.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -123,15 +123,6 @@
     <x:t>Abdelrahman Emad Eldeen Mohamed Ibrahim Mohamed Fatouh</x:t>
   </x:si>
   <x:si>
-    <x:t>1220096</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن محمد فتحى محمد موسى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>abdelrahman mohamed fathy</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220257</x:t>
   </x:si>
   <x:si>
@@ -141,24 +132,6 @@
     <x:t>Abdallah Mohamed ElMahdy</x:t>
   </x:si>
   <x:si>
-    <x:t>1210155</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر محمد رءوف شاذلى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Mohamed Raouf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220309</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمرو اشرف على محمود حسن</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AmrAshrafAli</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230080</x:t>
   </x:si>
   <x:si>
@@ -184,6 +157,15 @@
   </x:si>
   <x:si>
     <x:t>Mazen Mohamed Helmy Sayed Othman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220140</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد احمد سيد محمد عوض</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohammed ahmed sayed mohamed awad</x:t>
   </x:si>
   <x:si>
     <x:t>1220020</x:t>
@@ -344,7 +326,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -644,7 +626,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T23"/>
+  <x:dimension ref="A1:T21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1055,7 +1037,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45913.7293347569</x:v>
+        <x:v>45909.4149353009</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1087,7 +1069,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45909.4149353009</x:v>
+        <x:v>45909.4149788194</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1119,7 +1101,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.5217770023</x:v>
+        <x:v>45927.4887689815</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1151,7 +1133,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45909.4696554051</x:v>
+        <x:v>45913.7244644676</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1183,7 +1165,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45909.4149788194</x:v>
+        <x:v>45927.4144324884</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1215,7 +1197,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.4168616088</x:v>
+        <x:v>45913.5933806366</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1247,7 +1229,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45913.7244644676</x:v>
+        <x:v>45913.7317593403</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1279,7 +1261,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45913.5933806366</x:v>
+        <x:v>45909.4222365741</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1311,7 +1293,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45913.7317593403</x:v>
+        <x:v>45913.7372066319</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1343,7 +1325,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45909.4222365741</x:v>
+        <x:v>45913.7205501968</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1360,70 +1342,6 @@
       <x:c r="R21" s="2" t="s"/>
       <x:c r="S21" s="2" t="s"/>
       <x:c r="T21" s="2" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:20">
-      <x:c r="A22" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B22" s="2" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="C22" s="2" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="E22" s="3">
-        <x:v>45913.7372066319</x:v>
-      </x:c>
-      <x:c r="F22" s="2" t="s"/>
-      <x:c r="G22" s="2" t="s"/>
-      <x:c r="H22" s="2" t="s"/>
-      <x:c r="I22" s="2" t="s"/>
-      <x:c r="J22" s="2" t="s"/>
-      <x:c r="K22" s="2" t="s"/>
-      <x:c r="L22" s="2" t="s"/>
-      <x:c r="M22" s="2" t="s"/>
-      <x:c r="N22" s="2" t="s"/>
-      <x:c r="O22" s="2" t="s"/>
-      <x:c r="P22" s="2" t="s"/>
-      <x:c r="Q22" s="2" t="s"/>
-      <x:c r="R22" s="2" t="s"/>
-      <x:c r="S22" s="2" t="s"/>
-      <x:c r="T22" s="2" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:20">
-      <x:c r="A23" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B23" s="2" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="C23" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="E23" s="3">
-        <x:v>45913.7205501968</x:v>
-      </x:c>
-      <x:c r="F23" s="2" t="s"/>
-      <x:c r="G23" s="2" t="s"/>
-      <x:c r="H23" s="2" t="s"/>
-      <x:c r="I23" s="2" t="s"/>
-      <x:c r="J23" s="2" t="s"/>
-      <x:c r="K23" s="2" t="s"/>
-      <x:c r="L23" s="2" t="s"/>
-      <x:c r="M23" s="2" t="s"/>
-      <x:c r="N23" s="2" t="s"/>
-      <x:c r="O23" s="2" t="s"/>
-      <x:c r="P23" s="2" t="s"/>
-      <x:c r="Q23" s="2" t="s"/>
-      <x:c r="R23" s="2" t="s"/>
-      <x:c r="S23" s="2" t="s"/>
-      <x:c r="T23" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS405_Tutorial-35570.xlsx
+++ b/downloaded_files/CMPS405_Tutorial-35570.xlsx
@@ -1133,7 +1133,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45913.7244644676</x:v>
+        <x:v>45928.0489823264</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>

--- a/downloaded_files/CMPS405_Tutorial-35570.xlsx
+++ b/downloaded_files/CMPS405_Tutorial-35570.xlsx
@@ -1133,7 +1133,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45928.0489823264</x:v>
+        <x:v>45929.0714995023</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>

--- a/downloaded_files/CMPS405_Tutorial-35570.xlsx
+++ b/downloaded_files/CMPS405_Tutorial-35570.xlsx
@@ -102,7 +102,7 @@
     <x:t>رنا احمد محمد سمير محمد فهمى الغرباوى</x:t>
   </x:si>
   <x:si>
-    <x:t>Rana ahmed mohamed samir mohamed fahmy elgharabawy</x:t>
+    <x:t>RANA AHMED MOHAMED SAMIR MOHAMED FAHMY EIGHARABAWY</x:t>
   </x:si>
   <x:si>
     <x:t>1230191</x:t>
@@ -138,7 +138,7 @@
     <x:t>فرح مدحت محمد حسن شرشر</x:t>
   </x:si>
   <x:si>
-    <x:t>Farah medhat mohamed hassan sharshar</x:t>
+    <x:t>Farah Medhat Mohamed Hassan Sharshar</x:t>
   </x:si>
   <x:si>
     <x:t>1220269</x:t>
@@ -635,7 +635,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="35.280625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="57.050625000000004" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="60.720625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>

--- a/downloaded_files/CMPS405_Tutorial-35570.xlsx
+++ b/downloaded_files/CMPS405_Tutorial-35570.xlsx
@@ -129,7 +129,7 @@
     <x:t>عبدالله محمد عبدالحميد صبحى المهدى</x:t>
   </x:si>
   <x:si>
-    <x:t>Abdallah Mohamed ElMahdy</x:t>
+    <x:t>Abdallah Mohamed AbdelHameed Sobhy ElMahdy</x:t>
   </x:si>
   <x:si>
     <x:t>1230080</x:t>
